--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,118 +40,133 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>better</t>
+    <t>love</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>love</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>social</t>
@@ -163,19 +178,19 @@
     <t>netflix</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
     <t>dilemma</t>
   </si>
   <si>
-    <t>media</t>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>watching</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>watching</t>
   </si>
   <si>
     <t>’</t>
@@ -539,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,16 +644,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -650,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,16 +694,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.8333333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,16 +744,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.8181818181818182</v>
+        <v>0.86</v>
       </c>
       <c r="L5">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,16 +794,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.78</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8846153846153846</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K7">
         <v>0.7543859649122807</v>
@@ -858,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8484848484848485</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.6166666666666667</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8461538461538461</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.5733333333333334</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.5263157894736842</v>
+        <v>0.55</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1026,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.4827586206896552</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1050,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1058,13 +1073,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1076,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.3939393939393939</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1100,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1108,13 +1123,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.65</v>
+        <v>0.6875</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1126,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.3703703703703703</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="L13">
         <v>10</v>
@@ -1150,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1158,38 +1173,38 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.625</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C14">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>90</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>48</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L14">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="M14">
         <v>10</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="L14">
-        <v>13</v>
-      </c>
-      <c r="M14">
-        <v>13</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
@@ -1200,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1208,13 +1223,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6159420289855072</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C15">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1226,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.25</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L15">
         <v>9</v>
@@ -1250,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,16 +1294,16 @@
         <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.1639344262295082</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1300,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1308,13 +1323,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5652173913043478</v>
+        <v>0.5625</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1326,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.1408450704225352</v>
+        <v>0.1875</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1350,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1358,13 +1373,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5357142857142857</v>
+        <v>0.55</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1376,19 +1391,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.1357012750455373</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="L18">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1400,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>949</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1408,13 +1423,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5319148936170213</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1426,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.07067137809187279</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1450,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>263</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1458,13 +1473,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4615384615384616</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1476,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.05555555555555555</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1500,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>510</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1508,13 +1523,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4285714285714285</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1526,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.05396825396825397</v>
+        <v>0.1320582877959927</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1550,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>298</v>
+        <v>953</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1558,13 +1573,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4166666666666667</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1576,19 +1591,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.0466867469879518</v>
+        <v>0.06713780918727916</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1600,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>633</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1608,7 +1623,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3928571428571428</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -1626,31 +1641,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.03462204270051933</v>
+        <v>0.06296296296296296</v>
       </c>
       <c r="L23">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="N23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1673</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1658,13 +1673,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3214285714285715</v>
+        <v>0.4</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1676,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.03409090909090909</v>
+        <v>0.05572289156626506</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1700,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>595</v>
+        <v>627</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1708,63 +1723,87 @@
         <v>30</v>
       </c>
       <c r="B25">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>17</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25">
+        <v>0.05396825396825397</v>
+      </c>
+      <c r="L25">
+        <v>17</v>
+      </c>
+      <c r="M25">
+        <v>17</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
         <v>0.2307692307692308</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>18</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>18</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>60</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25">
-        <v>0.02647058823529412</v>
-      </c>
-      <c r="L25">
-        <v>9</v>
-      </c>
-      <c r="M25">
-        <v>10</v>
-      </c>
-      <c r="N25">
-        <v>0.9</v>
-      </c>
-      <c r="O25">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>0.02304737516005122</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1776,7 +1815,85 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>763</v>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="L27">
+        <v>11</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28">
+        <v>0.0282258064516129</v>
+      </c>
+      <c r="L28">
+        <v>49</v>
+      </c>
+      <c r="M28">
+        <v>49</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29">
+        <v>0.0141025641025641</v>
+      </c>
+      <c r="L29">
+        <v>11</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29">
+        <v>0.92</v>
+      </c>
+      <c r="O29">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>769</v>
       </c>
     </row>
   </sheetData>
